--- a/_2_cases_input_outputs/_05_Basel_BSPR_ue1/vcwg_saving/only_vcwg_debugging_canyon.xlsx
+++ b/_2_cases_input_outputs/_05_Basel_BSPR_ue1/vcwg_saving/only_vcwg_debugging_canyon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wulic\Documents\GitHub\urban_climate_and_who\1_scripts\EP_And_VCWG_v200\_1_case_analysis\cases\_05_Basel_BSPR_ue1\vcwg_saving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wulic\Documents\GitHub\urban_climate_and_who\_2_cases_input_outputs\_05_Basel_BSPR_ue1\vcwg_saving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A074D2-C0D6-4ACC-BD10-FF7808F95BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCD4A99-451D-4CAD-972E-DE9EA37AE200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,8 +435,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
